--- a/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>LZ-调节2hz_20160601_110006_ASIC_EEG</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>祥-调节2hz_20160620_102006_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>hzj-调节2hz_20161025_162241_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>hzj-调节2hz_20161103_101302_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>lz-调节2hz_20161027_104924_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>lz-调节2hz_20161031_163934_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节2Hz_20161020_154559_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节2hz_20161101_102759_ASIC_EEG</t>
   </si>
 </sst>
 </file>
@@ -401,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P3"/>
+      <selection sqref="A1:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +476,26 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.59039548022598876</v>
       </c>
@@ -508,8 +544,26 @@
       <c r="P2">
         <v>0.64638783269961975</v>
       </c>
+      <c r="Q2">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="R2">
+        <v>0.5703971119133574</v>
+      </c>
+      <c r="S2">
+        <v>0.55937499999999996</v>
+      </c>
+      <c r="T2">
+        <v>0.6058700209643606</v>
+      </c>
+      <c r="U2">
+        <v>0.61449275362318834</v>
+      </c>
+      <c r="V2">
+        <v>0.57440476190476186</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.68100358422939067</v>
       </c>
@@ -557,6 +611,24 @@
       </c>
       <c r="P3">
         <v>0.5544554455445545</v>
+      </c>
+      <c r="Q3">
+        <v>0.65889212827988342</v>
+      </c>
+      <c r="R3">
+        <v>0.61851851851851847</v>
+      </c>
+      <c r="S3">
+        <v>0.60616438356164382</v>
+      </c>
+      <c r="T3">
+        <v>0.59704641350210963</v>
+      </c>
+      <c r="U3">
+        <v>0.64265927977839343</v>
+      </c>
+      <c r="V3">
+        <v>0.5536723163841808</v>
       </c>
     </row>
   </sheetData>

--- a/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="6348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>LZ-调节2hz_20160601_110006_ASIC_EEG</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>wnb-调节2hz_20161101_102759_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节2Hz_20161109_104126_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wzq-调节2hz_20161123_101729_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wzq-调节2hz_20161128_105412_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wzq-调节2hz_20161130_101726_ASIC_EEG</t>
   </si>
 </sst>
 </file>
@@ -419,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V3"/>
+      <selection sqref="A1:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +506,20 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.59039548022598876</v>
       </c>
@@ -562,8 +586,20 @@
       <c r="V2">
         <v>0.57440476190476186</v>
       </c>
+      <c r="W2">
+        <v>0.59375</v>
+      </c>
+      <c r="X2">
+        <v>0.58389261744966436</v>
+      </c>
+      <c r="Y2">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="Z2">
+        <v>0.58385093167701863</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.68100358422939067</v>
       </c>
@@ -629,6 +665,18 @@
       </c>
       <c r="V3">
         <v>0.5536723163841808</v>
+      </c>
+      <c r="W3">
+        <v>0.61512027491408938</v>
+      </c>
+      <c r="X3">
+        <v>0.61851851851851847</v>
+      </c>
+      <c r="Y3">
+        <v>0.53374233128834359</v>
+      </c>
+      <c r="Z3">
+        <v>0.61851851851851847</v>
       </c>
     </row>
   </sheetData>

--- a/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>LZ-调节2hz_20160601_110006_ASIC_EEG</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>wzq-调节2hz_20161130_101726_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>hzj-调节2Hz_20161220_103414_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wzq-调节2Hz_20161214_103206_ASIC_EEG</t>
   </si>
 </sst>
 </file>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z3"/>
+      <selection sqref="A1:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +524,14 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.59039548022598876</v>
       </c>
@@ -598,8 +610,14 @@
       <c r="Z2">
         <v>0.58385093167701863</v>
       </c>
+      <c r="AA2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="AB2">
+        <v>0.53745928338762217</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.68100358422939067</v>
       </c>
@@ -677,6 +695,12 @@
       </c>
       <c r="Z3">
         <v>0.61851851851851847</v>
+      </c>
+      <c r="AA3">
+        <v>0.62214983713355054</v>
+      </c>
+      <c r="AB3">
+        <v>0.54019292604501601</v>
       </c>
     </row>
   </sheetData>

--- a/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
+++ b/Data/全部数据/原始excel/理想数据k=1~2/k=1.0/k=1.0所有概率值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>LZ-调节2hz_20160601_110006_ASIC_EEG</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>wzq-调节2Hz_20161214_103206_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节6Hz_20161230_113123_ASIC_EEG</t>
+  </si>
+  <si>
+    <t>wnb-调节6Hz_20170110_113300_ASIC_EEG</t>
   </si>
 </sst>
 </file>
@@ -437,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB3"/>
+      <selection sqref="A1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +536,14 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.59039548022598876</v>
       </c>
@@ -616,8 +628,14 @@
       <c r="AB2">
         <v>0.53745928338762217</v>
       </c>
+      <c r="AC2">
+        <v>0.59485530546623799</v>
+      </c>
+      <c r="AD2">
+        <v>0.49838187702265369</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.68100358422939067</v>
       </c>
@@ -701,6 +719,12 @@
       </c>
       <c r="AB3">
         <v>0.54019292604501601</v>
+      </c>
+      <c r="AC3">
+        <v>0.56211180124223603</v>
+      </c>
+      <c r="AD3">
+        <v>0.70648464163822533</v>
       </c>
     </row>
   </sheetData>
